--- a/Report.xlsx
+++ b/Report.xlsx
@@ -687,7 +687,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,5 +945,6 @@
   </sheetData>
   <autoFilter ref="A1:E11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>